--- a/5932.xlsx
+++ b/5932.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Science\ImageProc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079BE974-0FD0-4CF2-9449-15DAB92EFB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE6E194-CDED-4BA8-80F4-8E268D6317F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,30 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
     <t>Radius</t>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>min radius</t>
-  </si>
-  <si>
-    <t>Akima 1</t>
-  </si>
-  <si>
-    <t>Akima 2</t>
-  </si>
-  <si>
-    <t>Akima 3</t>
-  </si>
-  <si>
-    <t>Akima 4</t>
-  </si>
-  <si>
-    <t>Akima 5</t>
   </si>
 </sst>
 </file>
@@ -85,7 +67,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -108,27 +90,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -433,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,7 +415,7 @@
     <col min="16" max="16" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,26 +446,8 @@
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -528,26 +478,8 @@
       <c r="J2">
         <v>867.89269999999999</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>29.628350000000001</v>
-      </c>
-      <c r="M2">
-        <v>739.92316000000005</v>
-      </c>
-      <c r="N2">
-        <v>1222.5269499999999</v>
-      </c>
-      <c r="O2">
-        <v>194.84745000000001</v>
-      </c>
-      <c r="P2">
-        <v>867.89269999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.29449999999999998</v>
       </c>
@@ -578,26 +510,8 @@
       <c r="J3">
         <v>839.33622000000003</v>
       </c>
-      <c r="K3">
-        <v>0.29449999999999998</v>
-      </c>
-      <c r="L3">
-        <v>28.253579999999999</v>
-      </c>
-      <c r="M3">
-        <v>721.56092000000001</v>
-      </c>
-      <c r="N3">
-        <v>1184.4110000000001</v>
-      </c>
-      <c r="O3">
-        <v>189.60105999999999</v>
-      </c>
-      <c r="P3">
-        <v>852.68032000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.60450000000000004</v>
       </c>
@@ -628,26 +542,8 @@
       <c r="J4">
         <v>753.28607</v>
       </c>
-      <c r="K4">
-        <v>0.60450000000000004</v>
-      </c>
-      <c r="L4">
-        <v>24.35257</v>
-      </c>
-      <c r="M4">
-        <v>656.16306999999995</v>
-      </c>
-      <c r="N4">
-        <v>1073.6282799999999</v>
-      </c>
-      <c r="O4">
-        <v>178.85194000000001</v>
-      </c>
-      <c r="P4">
-        <v>804.57649000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.91449999999999998</v>
       </c>
@@ -678,26 +574,8 @@
       <c r="J5">
         <v>610.14967999999999</v>
       </c>
-      <c r="K5">
-        <v>0.91449999999999998</v>
-      </c>
-      <c r="L5">
-        <v>19.333690000000001</v>
-      </c>
-      <c r="M5">
-        <v>550.50459999999998</v>
-      </c>
-      <c r="N5">
-        <v>906.16528000000005</v>
-      </c>
-      <c r="O5">
-        <v>161.43188000000001</v>
-      </c>
-      <c r="P5">
-        <v>719.07038</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.2244999999999999</v>
       </c>
@@ -728,26 +606,8 @@
       <c r="J6">
         <v>436.69369</v>
       </c>
-      <c r="K6">
-        <v>1.2244999999999999</v>
-      </c>
-      <c r="L6">
-        <v>14.54754</v>
-      </c>
-      <c r="M6">
-        <v>434.69956999999999</v>
-      </c>
-      <c r="N6">
-        <v>707.87760000000003</v>
-      </c>
-      <c r="O6">
-        <v>134.63367</v>
-      </c>
-      <c r="P6">
-        <v>603.55502000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.5345</v>
       </c>
@@ -778,26 +638,8 @@
       <c r="J7">
         <v>261.30473000000001</v>
       </c>
-      <c r="K7">
-        <v>1.5345</v>
-      </c>
-      <c r="L7">
-        <v>9.3288499999999992</v>
-      </c>
-      <c r="M7">
-        <v>314.77780999999999</v>
-      </c>
-      <c r="N7">
-        <v>498.27962000000002</v>
-      </c>
-      <c r="O7">
-        <v>103.84313</v>
-      </c>
-      <c r="P7">
-        <v>469.84640000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.8445</v>
       </c>
@@ -828,26 +670,8 @@
       <c r="J8">
         <v>126.07979</v>
       </c>
-      <c r="K8">
-        <v>1.8445</v>
-      </c>
-      <c r="L8">
-        <v>5.2745600000000001</v>
-      </c>
-      <c r="M8">
-        <v>206.45004</v>
-      </c>
-      <c r="N8">
-        <v>310.53199999999998</v>
-      </c>
-      <c r="O8">
-        <v>73.033559999999994</v>
-      </c>
-      <c r="P8">
-        <v>338.62545999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2.1545000000000001</v>
       </c>
@@ -878,26 +702,8 @@
       <c r="J9">
         <v>47.708190000000002</v>
       </c>
-      <c r="K9">
-        <v>2.1545000000000001</v>
-      </c>
-      <c r="L9">
-        <v>3.1055899999999999</v>
-      </c>
-      <c r="M9">
-        <v>117.70269999999999</v>
-      </c>
-      <c r="N9">
-        <v>168.93548999999999</v>
-      </c>
-      <c r="O9">
-        <v>46.494239999999998</v>
-      </c>
-      <c r="P9">
-        <v>213.54365000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2.4645000000000001</v>
       </c>
@@ -928,26 +734,8 @@
       <c r="J10">
         <v>16.240539999999999</v>
       </c>
-      <c r="K10">
-        <v>2.4645000000000001</v>
-      </c>
-      <c r="L10">
-        <v>1.5353699999999999</v>
-      </c>
-      <c r="M10">
-        <v>57.710599999999999</v>
-      </c>
-      <c r="N10">
-        <v>77.245940000000004</v>
-      </c>
-      <c r="O10">
-        <v>26.441929999999999</v>
-      </c>
-      <c r="P10">
-        <v>117.69457</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.7745000000000002</v>
       </c>
@@ -977,24 +765,6 @@
       </c>
       <c r="J11">
         <v>5.2487500000000002</v>
-      </c>
-      <c r="K11">
-        <v>2.7745000000000002</v>
-      </c>
-      <c r="L11">
-        <v>0.84724999999999995</v>
-      </c>
-      <c r="M11">
-        <v>24.087440000000001</v>
-      </c>
-      <c r="N11">
-        <v>32.562190000000001</v>
-      </c>
-      <c r="O11">
-        <v>13.46194</v>
-      </c>
-      <c r="P11">
-        <v>55.323970000000003</v>
       </c>
     </row>
   </sheetData>

--- a/5932.xlsx
+++ b/5932.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Science\ImageProc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE6E194-CDED-4BA8-80F4-8E268D6317F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975F7C2E-4AAB-41C5-A95E-AF1212CE364E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -404,7 +404,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,31 +452,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.628350000000001</v>
+        <v>6.098318353451651</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>739.92316000000005</v>
+        <v>119.36262464293684</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1222.5269499999999</v>
+        <v>208.91139219996768</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>194.84745000000001</v>
+        <v>37.792571554445779</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>867.89269999999999</v>
+        <v>187.03891334394146</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -484,31 +484,31 @@
         <v>0.29449999999999998</v>
       </c>
       <c r="B3">
-        <v>28.253579999999999</v>
+        <v>5.7111549352108177</v>
       </c>
       <c r="C3">
         <v>0.38750000000000001</v>
       </c>
       <c r="D3">
-        <v>706.98949000000005</v>
+        <v>112.98071571718035</v>
       </c>
       <c r="E3">
         <v>0.35649999999999998</v>
       </c>
       <c r="F3">
-        <v>1168.15697</v>
+        <v>195.69360719391136</v>
       </c>
       <c r="G3">
         <v>0.34100000000000003</v>
       </c>
       <c r="H3">
-        <v>188.32364999999999</v>
+        <v>35.864313821493234</v>
       </c>
       <c r="I3">
         <v>0.40300000000000002</v>
       </c>
       <c r="J3">
-        <v>839.33622000000003</v>
+        <v>172.54820909235627</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -516,31 +516,31 @@
         <v>0.60450000000000004</v>
       </c>
       <c r="B4">
-        <v>24.35257</v>
+        <v>4.836194925047832</v>
       </c>
       <c r="C4">
         <v>0.77500000000000002</v>
       </c>
       <c r="D4">
-        <v>600.94898000000001</v>
+        <v>95.130508282105524</v>
       </c>
       <c r="E4">
         <v>0.72850000000000004</v>
       </c>
       <c r="F4">
-        <v>1010.52068</v>
+        <v>166.14328743964052</v>
       </c>
       <c r="G4">
         <v>0.68200000000000005</v>
       </c>
       <c r="H4">
-        <v>175.21409</v>
+        <v>31.722564847250037</v>
       </c>
       <c r="I4">
         <v>0.80600000000000005</v>
       </c>
       <c r="J4">
-        <v>753.28607</v>
+        <v>146.61787182350477</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -548,31 +548,31 @@
         <v>0.91449999999999998</v>
       </c>
       <c r="B5">
-        <v>19.333690000000001</v>
+        <v>3.8427530800177014</v>
       </c>
       <c r="C5">
         <v>1.1625000000000001</v>
       </c>
       <c r="D5">
-        <v>458.42788999999999</v>
+        <v>71.541657526412791</v>
       </c>
       <c r="E5">
         <v>1.1005</v>
       </c>
       <c r="F5">
-        <v>791.67</v>
+        <v>128.14369022665909</v>
       </c>
       <c r="G5">
         <v>1.0385</v>
       </c>
       <c r="H5">
-        <v>151.62025</v>
+        <v>26.167770624183131</v>
       </c>
       <c r="I5">
         <v>1.2090000000000001</v>
       </c>
       <c r="J5">
-        <v>610.14967999999999</v>
+        <v>112.04642441502615</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -580,31 +580,31 @@
         <v>1.2244999999999999</v>
       </c>
       <c r="B6">
-        <v>14.54754</v>
+        <v>2.898194467308862</v>
       </c>
       <c r="C6">
         <v>1.55</v>
       </c>
       <c r="D6">
-        <v>308.89672000000002</v>
+        <v>47.045667325439801</v>
       </c>
       <c r="E6">
         <v>1.4570000000000001</v>
       </c>
       <c r="F6">
-        <v>548.63376000000005</v>
+        <v>88.877896737461882</v>
       </c>
       <c r="G6">
         <v>1.3794999999999999</v>
       </c>
       <c r="H6">
-        <v>119.59662</v>
+        <v>20.152061184434274</v>
       </c>
       <c r="I6">
         <v>1.6120000000000001</v>
       </c>
       <c r="J6">
-        <v>436.69369</v>
+        <v>76.571101943763964</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -612,31 +612,31 @@
         <v>1.5345</v>
       </c>
       <c r="B7">
-        <v>9.3288499999999992</v>
+        <v>1.8627262457960549</v>
       </c>
       <c r="C7">
         <v>1.9375</v>
       </c>
       <c r="D7">
-        <v>176.92214000000001</v>
+        <v>25.995628962621769</v>
       </c>
       <c r="E7">
         <v>1.829</v>
       </c>
       <c r="F7">
-        <v>319.32920000000001</v>
+        <v>52.73660194828372</v>
       </c>
       <c r="G7">
         <v>1.736</v>
       </c>
       <c r="H7">
-        <v>83.377660000000006</v>
+        <v>13.808607392596207</v>
       </c>
       <c r="I7">
         <v>2.0305</v>
       </c>
       <c r="J7">
-        <v>261.30473000000001</v>
+        <v>44.120460078727838</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -644,31 +644,31 @@
         <v>1.8445</v>
       </c>
       <c r="B8">
-        <v>5.2745600000000001</v>
+        <v>1.0563395802610911</v>
       </c>
       <c r="C8">
         <v>2.3250000000000002</v>
       </c>
       <c r="D8">
-        <v>81.70823</v>
+        <v>11.896088337071594</v>
       </c>
       <c r="E8">
         <v>2.2010000000000001</v>
       </c>
       <c r="F8">
-        <v>152.29845</v>
+        <v>26.274209248667105</v>
       </c>
       <c r="G8">
         <v>2.077</v>
       </c>
       <c r="H8">
-        <v>52.699959999999997</v>
+        <v>8.7171654142457395</v>
       </c>
       <c r="I8">
         <v>2.4335</v>
       </c>
       <c r="J8">
-        <v>126.07979</v>
+        <v>21.477371653479516</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -676,31 +676,31 @@
         <v>2.1545000000000001</v>
       </c>
       <c r="B9">
-        <v>3.1055899999999999</v>
+        <v>0.59009050929934626</v>
       </c>
       <c r="C9">
         <v>2.7124999999999999</v>
       </c>
       <c r="D9">
-        <v>28.560960000000001</v>
+        <v>4.3856835650042143</v>
       </c>
       <c r="E9">
         <v>2.5575000000000001</v>
       </c>
       <c r="F9">
-        <v>60.186839999999997</v>
+        <v>10.988807558970098</v>
       </c>
       <c r="G9">
         <v>2.4335</v>
       </c>
       <c r="H9">
-        <v>28.12584</v>
+        <v>4.6456615667057095</v>
       </c>
       <c r="I9">
         <v>2.8365</v>
       </c>
       <c r="J9">
-        <v>47.708190000000002</v>
+        <v>8.2910936339201662</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -708,31 +708,31 @@
         <v>2.4645000000000001</v>
       </c>
       <c r="B10">
-        <v>1.5353699999999999</v>
+        <v>0.29932079045303439</v>
       </c>
       <c r="C10">
         <v>3.1</v>
       </c>
       <c r="D10">
-        <v>7.7577100000000003</v>
+        <v>1.4067514654559727</v>
       </c>
       <c r="E10">
         <v>2.9295</v>
       </c>
       <c r="F10">
-        <v>18.945250000000001</v>
+        <v>3.6161265243799803</v>
       </c>
       <c r="G10">
         <v>2.7745000000000002</v>
       </c>
       <c r="H10">
-        <v>13.46194</v>
+        <v>2.12254722767549</v>
       </c>
       <c r="I10">
         <v>3.2395</v>
       </c>
       <c r="J10">
-        <v>16.240539999999999</v>
+        <v>2.7079100529248445</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -740,31 +740,31 @@
         <v>2.7745000000000002</v>
       </c>
       <c r="B11">
-        <v>0.84724999999999995</v>
+        <v>0.15368494712069475</v>
       </c>
       <c r="C11">
         <v>3.5030000000000001</v>
       </c>
       <c r="D11">
-        <v>2.2136499999999999</v>
+        <v>0.4599560845909621</v>
       </c>
       <c r="E11">
         <v>3.3014999999999999</v>
       </c>
       <c r="F11">
-        <v>5.7843299999999997</v>
+        <v>1.1120766454216628</v>
       </c>
       <c r="G11">
         <v>3.1309999999999998</v>
       </c>
       <c r="H11">
-        <v>5.3358999999999996</v>
+        <v>0.81978550670488926</v>
       </c>
       <c r="I11">
         <v>3.6579999999999999</v>
       </c>
       <c r="J11">
-        <v>5.2487500000000002</v>
+        <v>0.85367274616895095</v>
       </c>
     </row>
   </sheetData>
